--- a/Data/Processing/2024-02-02/GMMPFAUDLR.xlsx
+++ b/Data/Processing/2024-02-02/GMMPFAUDLR.xlsx
@@ -2819,7 +2819,7 @@
         <v>1488.81</v>
       </c>
       <c r="D46">
-        <v>1461.35</v>
+        <v>1461.34</v>
       </c>
       <c r="E46">
         <v>1471.23</v>
@@ -2840,13 +2840,13 @@
         <v>0.71</v>
       </c>
       <c r="K46">
-        <v>-1.15</v>
+        <v>-1.16</v>
       </c>
       <c r="L46">
         <v>-3.25</v>
       </c>
       <c r="M46">
-        <v>0.6699999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="N46">
         <v>1.86</v>
@@ -4866,7 +4866,7 @@
         <v>1458.15</v>
       </c>
       <c r="C87">
-        <v>1461.39</v>
+        <v>1461.4</v>
       </c>
       <c r="D87">
         <v>1450.16</v>
@@ -5819,7 +5819,7 @@
         <v>1496.95</v>
       </c>
       <c r="D106">
-        <v>1469.29</v>
+        <v>1469.28</v>
       </c>
       <c r="E106">
         <v>1471.98</v>
